--- a/Code/DoAn3_10122277_12522T.1/src/test/resources/DataSearch.xlsx
+++ b/Code/DoAn3_10122277_12522T.1/src/test/resources/DataSearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Code\DoAn3_10122277_12522T.1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7C913A-CFD9-4351-B5EB-94980EBC30C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDAC82-1F7A-4C4C-8154-04FB498D2B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{254DFBBC-F2BC-4035-879C-7928D4297FE0}"/>
+    <workbookView xWindow="4596" yWindow="4200" windowWidth="18060" windowHeight="8664" xr2:uid="{254DFBBC-F2BC-4035-879C-7928D4297FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,73 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Kết quả thực tế</t>
-  </si>
-  <si>
-    <t>Kết quả tìm kiếm 85 sản phẩm</t>
-  </si>
-  <si>
-    <t>sách hay</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập từ khóa tìm kiếm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>gà</t>
   </si>
   <si>
-    <t>Không tìm thấy bất kỳ kết quả nào với từ khóa "gà"</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Kết quả tìm kiếm 86 sản phẩm</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
-    <t>Kết quả tìm kiếm 27 sản phẩm</t>
-  </si>
-  <si>
     <t>Trùng Hưng Thuở Ấy [Bìa mềm] - Tô Như</t>
   </si>
   <si>
-    <t>Kết quả tìm kiếm 1 sản phẩm</t>
-  </si>
-  <si>
     <t>hoi uc</t>
   </si>
   <si>
-    <t xml:space="preserve">     sách</t>
-  </si>
-  <si>
     <t xml:space="preserve">  hồi   ức </t>
   </si>
   <si>
-    <t>Kết quả tìm kiếm 3 sản phẩm</t>
-  </si>
-  <si>
     <t>Từ khóa</t>
   </si>
   <si>
-    <t xml:space="preserve">Kết quả mong muốn </t>
-  </si>
-  <si>
-    <t>Kết quả tìm kiếm 19 sản phẩm</t>
-  </si>
-  <si>
-    <t>Kết quả tìm kiếm 2 sản phẩm</t>
+    <t xml:space="preserve">HỒI ỨC </t>
+  </si>
+  <si>
+    <t>!$&amp;^%$##</t>
+  </si>
+  <si>
+    <t>Kết quả mong muốn</t>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả phù hợp với từ khóa "gà"</t>
+  </si>
+  <si>
+    <t>Không tìm thấy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tìm thấy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +78,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -132,11 +102,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,109 +428,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F80177-325B-4693-BEAE-83B1371EF59F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
